--- a/data/case1/18/P2_13.xlsx
+++ b/data/case1/18/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.097155510035705106</v>
+        <v>0.068707790979985361</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999988571184417</v>
+        <v>-0.046061934238363023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999988629880789</v>
+        <v>-0.0089999995131453403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398701987804742</v>
+        <v>0.28399186991552128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.033818188262408455</v>
+        <v>-0.0059999995277983942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999988400605275</v>
+        <v>-0.0059999995128947603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.046772261753890376</v>
+        <v>-0.019999999432442905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998653867479</v>
+        <v>-0.019999999429767712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999988157057871</v>
+        <v>-0.005999999507188214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999988074395105</v>
+        <v>-0.0059999995059172306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999988253557888</v>
+        <v>-0.0044999995143584215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999988053553999</v>
+        <v>-0.0059999995057307132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999987999646009</v>
+        <v>-0.0059999995062609557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998725306327</v>
+        <v>-0.011999999472727119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.005999998799163464</v>
+        <v>0.042853778580768775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.018166872481771623</v>
+        <v>-0.0059999995065060929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999987978116565</v>
+        <v>-0.0059999995046924326</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0034283049070769067</v>
+        <v>-0.0089999994873064537</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999988704101419</v>
+        <v>-0.010864574018345952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999988605082848</v>
+        <v>-0.0089999995083935858</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999988591022984</v>
+        <v>-0.0089999995078153816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999988581839219</v>
+        <v>-0.0089999995074254713</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999988545992338</v>
+        <v>-0.0089999995091059048</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0419999984315238</v>
+        <v>-0.04199999931408005</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998422711293</v>
+        <v>-0.041999999310557534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999988374315194</v>
+        <v>-0.005999999511359988</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999988327019693</v>
+        <v>-0.0059999995090720404</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999988122081405</v>
+        <v>-0.0059999994994361927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998724927963</v>
+        <v>-0.011999999459016308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998620673143</v>
+        <v>-0.01999999941077979</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998673062009</v>
+        <v>-0.013664947504221203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.011304513789212045</v>
+        <v>-0.020999999399953673</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999987822756395</v>
+        <v>-0.0059999994848576321</v>
       </c>
     </row>
   </sheetData>
